--- a/src/main/resources/170-microservices-event-sourcing/order-service_structure.xlsx
+++ b/src/main/resources/170-microservices-event-sourcing/order-service_structure.xlsx
@@ -493,7 +493,7 @@
     <t>com.timeyang.OrderServiceApplication</t>
   </si>
   <si>
-    <t>loadBalancedOauth2RestTemplate(org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails)</t>
+    <t>loadBalancedOauth2RestTemplate(org.springframework.security.oauth2.client.resource.OAuth2ProtectedResourceDetails,org.springframework.security.oauth2.client.OAuth2ClientContext)</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.client.OAuth2RestTemplate</t>
